--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600336.0290816155</v>
+        <v>604051.6336453127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7298415.94681308</v>
+        <v>7298415.946813081</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>139.9938678896244</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>215.4503865306644</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>47.4185016097371</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>69.53079011854132</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>143.6532814811978</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>236.5883870157907</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -975,19 +977,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>87.17055427250241</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>56.13550492161991</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>34.33801399965233</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>30.84765070733269</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>139.940830141656</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>156.3253573379219</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1221,7 +1223,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1266,10 +1268,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>46.74539589871718</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -1278,7 +1280,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>26.90568038888087</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>50.77333445464513</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>112.9483076698065</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>325.224086848979</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>43.73523355801913</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.47472538141861</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>235.4921832098738</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>289.5616194645468</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3500134355872933</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>233.487107529039</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>98.26147134273967</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1929,16 +1931,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>90.87914143716708</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>250.6578431917893</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>143.6532814811978</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>146.0573237471818</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2281,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>182.7812025203409</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>255.3987578699663</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>30.3728778397048</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>84.90916659449587</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>118.1202051047698</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>76.07668192134932</v>
       </c>
       <c r="C25" t="n">
-        <v>48.64890495656338</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>249.6246200034147</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>255.7425466080294</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2642,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>19.18172622600089</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6107013963112</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>270.0813371416177</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.330193639513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2953,10 +2955,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>25.5578537124857</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>79.49039382018367</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.2383779004403</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>289.2272834697995</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>168.5052963341061</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>147.9812346844643</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>23.5720323953145</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>29.07246438123499</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>277.4577988103209</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>120.8391135758914</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3351,13 +3353,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3399,10 +3401,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>154.1959110183223</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>11.57315202520407</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.5841378245459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>64.26793438746503</v>
+        <v>227.441447155633</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3633,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>41.33210888672573</v>
       </c>
       <c r="U39" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V40" t="n">
-        <v>225.2938802726979</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>191.395412637364</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>58.82007593260929</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
         <v>160.0866360314548</v>
@@ -3828,13 +3830,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3882,10 +3884,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>157.1951010170795</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>227.4414471556335</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
@@ -4037,7 +4039,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>171.8704449555714</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,16 +4067,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -4144,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>50.7733344546449</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>86.22604835954583</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>599.5361900102682</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C2" t="n">
-        <v>599.5361900102682</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D2" t="n">
-        <v>599.5361900102682</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E2" t="n">
-        <v>599.5361900102682</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F2" t="n">
-        <v>599.5361900102682</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>183.4322034644562</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
         <v>42.02425610119923</v>
@@ -4328,19 +4330,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4358,22 +4360,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V2" t="n">
-        <v>1344.101260631174</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W2" t="n">
-        <v>981.5663304887748</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X2" t="n">
-        <v>599.5361900102682</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y2" t="n">
-        <v>599.5361900102682</v>
+        <v>1605.718890124891</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.6641732647531</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>521.6641732647531</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>521.6641732647531</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>637.3366538315036</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M3" t="n">
-        <v>1122.37000734173</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1328.067954827843</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1720.267905611993</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2022.363824887691</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.083616046014</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4516,22 +4518,22 @@
         <v>172.3146160188864</v>
       </c>
       <c r="T4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>796.7819795411683</v>
+        <v>423.9580147683919</v>
       </c>
       <c r="C5" t="n">
-        <v>414.8482208739757</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
         <v>42.02425610119923</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1823.345543186168</v>
+        <v>1956.108480331479</v>
       </c>
       <c r="W5" t="n">
-        <v>1823.345543186168</v>
+        <v>1593.57355018908</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.36737448335</v>
+        <v>1211.543409710573</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.825519059187</v>
+        <v>818.001554286411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.879904359699</v>
+        <v>557.9768611231002</v>
       </c>
       <c r="C6" t="n">
-        <v>373.8288394379794</v>
+        <v>396.2731883640549</v>
       </c>
       <c r="D6" t="n">
-        <v>373.8288394379794</v>
+        <v>257.434551354267</v>
       </c>
       <c r="E6" t="n">
-        <v>373.8288394379794</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F6" t="n">
-        <v>239.1350413878537</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G6" t="n">
         <v>110.4065414111382</v>
@@ -4644,16 +4646,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N6" t="n">
         <v>1249.145305214519</v>
@@ -4671,25 +4673,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>1984.726005931049</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1796.040902097034</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1577.546109695344</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1349.150487143678</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1107.834618376988</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>909.9176302547822</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>717.396303904361</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390.5281326627519</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="C7" t="n">
-        <v>220.9121631244322</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="D7" t="n">
-        <v>186.2273004985207</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="E7" t="n">
-        <v>186.2273004985207</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="F7" t="n">
-        <v>186.2273004985207</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="G7" t="n">
-        <v>186.2273004985207</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="H7" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
         <v>42.02425610119923</v>
@@ -4750,25 +4752,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>73.18349923991912</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>73.18349923991912</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.212805059961</v>
+        <v>818.7437346622851</v>
       </c>
       <c r="C8" t="n">
-        <v>1719.279046392769</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="D8" t="n">
-        <v>1346.455081619992</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E8" t="n">
-        <v>1205.100707739532</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>790.949517049702</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
         <v>42.02425610119923</v>
@@ -4808,13 +4810,13 @@
         <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4835,19 +4837,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.308403708525</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1606.329129604466</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1606.329129604466</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>1606.329129604466</v>
       </c>
       <c r="Y8" t="n">
-        <v>2101.212805059961</v>
+        <v>1212.787274180304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>786.6432185531175</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>624.9395457940723</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>486.1009087842844</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>339.0728988411556</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4887,46 +4889,46 @@
         <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y9" t="n">
-        <v>786.6432185531175</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E10" t="n">
-        <v>360.3737387508193</v>
+        <v>522.7973049282982</v>
       </c>
       <c r="F10" t="n">
-        <v>360.3737387508193</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G10" t="n">
-        <v>360.3737387508193</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4989,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y10" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2101.212805059961</v>
+        <v>840.958983135127</v>
       </c>
       <c r="C11" t="n">
-        <v>2101.212805059961</v>
+        <v>459.0252244679344</v>
       </c>
       <c r="D11" t="n">
-        <v>1772.703626424629</v>
+        <v>86.20125969515794</v>
       </c>
       <c r="E11" t="n">
-        <v>1377.917906530736</v>
+        <v>86.20125969515794</v>
       </c>
       <c r="F11" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G11" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5063,28 +5065,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X11" t="n">
-        <v>2101.212805059961</v>
+        <v>1628.544378077308</v>
       </c>
       <c r="Y11" t="n">
-        <v>2101.212805059961</v>
+        <v>1235.002522653146</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5132,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N12" t="n">
-        <v>1693.889799997958</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.116885784264</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.0905089257077</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>254.0905089257077</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>254.0905089257077</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>551.2496544198223</v>
       </c>
       <c r="U13" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="V13" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="W13" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X13" t="n">
-        <v>286.8932618362315</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y13" t="n">
-        <v>286.8932618362315</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2010.574518555815</v>
+        <v>1089.268463848791</v>
       </c>
       <c r="C14" t="n">
-        <v>2010.574518555815</v>
+        <v>707.3347051815988</v>
       </c>
       <c r="D14" t="n">
-        <v>1772.703626424629</v>
+        <v>334.5107404088224</v>
       </c>
       <c r="E14" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I14" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K14" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M14" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N14" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O14" t="n">
         <v>1778.623654917371</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T14" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U14" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V14" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W14" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X14" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y14" t="n">
-        <v>2010.574518555815</v>
+        <v>1483.312003366811</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5357,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K15" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0462563653213</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M15" t="n">
-        <v>1130.079609875548</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.34525599867</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P15" t="n">
         <v>1943.441175274367</v>
@@ -5379,19 +5381,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U15" t="n">
-        <v>1699.590396408797</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V15" t="n">
-        <v>1471.194773857131</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W15" t="n">
         <v>1471.194773857131</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G16" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H16" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I16" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5455,31 +5457,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1185.735236943595</v>
+        <v>1205.444741493018</v>
       </c>
       <c r="C17" t="n">
-        <v>1185.735236943595</v>
+        <v>823.5109828258251</v>
       </c>
       <c r="D17" t="n">
-        <v>1185.735236943595</v>
+        <v>450.6870180530486</v>
       </c>
       <c r="E17" t="n">
-        <v>790.949517049702</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F17" t="n">
-        <v>790.949517049702</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G17" t="n">
-        <v>374.84553050389</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H17" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
         <v>42.02425610119923</v>
@@ -5525,7 +5527,7 @@
         <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O17" t="n">
         <v>1778.623654917371</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>2001.958793602648</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>1777.59984733366</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>1522.714511047654</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V17" t="n">
-        <v>1185.735236943595</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="W17" t="n">
-        <v>1185.735236943595</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="X17" t="n">
-        <v>1185.735236943595</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="Y17" t="n">
-        <v>1185.735236943595</v>
+        <v>1205.444741493018</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F18" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H18" t="n">
         <v>110.4065414111382</v>
@@ -5592,22 +5594,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N18" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O18" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
         <v>2101.212805059961</v>
@@ -5616,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T18" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.1947855664981</v>
+        <v>195.0961492734365</v>
       </c>
       <c r="C19" t="n">
-        <v>127.1947855664981</v>
+        <v>195.0961492734365</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
         <v>42.02425610119923</v>
@@ -5698,25 +5700,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.956456438673</v>
+        <v>423.9580147683919</v>
       </c>
       <c r="C20" t="n">
-        <v>1216.956456438673</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D20" t="n">
-        <v>1216.956456438673</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.956456438673</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F20" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5774,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U20" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V20" t="n">
-        <v>1598.98659691718</v>
+        <v>1956.108480331479</v>
       </c>
       <c r="W20" t="n">
-        <v>1598.98659691718</v>
+        <v>1593.57355018908</v>
       </c>
       <c r="X20" t="n">
-        <v>1216.956456438673</v>
+        <v>1211.543409710573</v>
       </c>
       <c r="Y20" t="n">
-        <v>1216.956456438673</v>
+        <v>818.001554286411</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>473.7666968912813</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>473.7666968912813</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>473.7666968912813</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L21" t="n">
-        <v>410.6179353667646</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K22" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L22" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M22" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N22" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O22" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q22" t="n">
-        <v>2062.675463713651</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.153682328029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>1728.526205034755</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>1728.526205034755</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>1728.526205034755</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V22" t="n">
-        <v>1728.526205034755</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>1728.526205034755</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.530979037796</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="C23" t="n">
-        <v>1616.530979037796</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="D23" t="n">
-        <v>1616.530979037796</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.745259143902</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F23" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G23" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
         <v>42.02425610119923</v>
@@ -6011,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2010.574518555815</v>
+        <v>2070.533130474401</v>
       </c>
       <c r="S23" t="n">
-        <v>2010.574518555815</v>
+        <v>2070.533130474401</v>
       </c>
       <c r="T23" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.174184205412</v>
       </c>
       <c r="U23" t="n">
-        <v>2010.574518555815</v>
+        <v>1591.288847919406</v>
       </c>
       <c r="V23" t="n">
-        <v>2010.574518555815</v>
+        <v>1254.309573815347</v>
       </c>
       <c r="W23" t="n">
-        <v>2010.574518555815</v>
+        <v>1254.309573815347</v>
       </c>
       <c r="X23" t="n">
-        <v>2010.574518555815</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="Y23" t="n">
-        <v>2010.574518555815</v>
+        <v>872.2794333368408</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.879904359699</v>
+        <v>535.5325121970246</v>
       </c>
       <c r="C24" t="n">
-        <v>300.1762316006536</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="D24" t="n">
-        <v>161.3375945908657</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="E24" t="n">
-        <v>42.02425610119923</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F24" t="n">
-        <v>42.02425610119923</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>1182.624153874836</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.889799997958</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
-        <v>2086.089750782109</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>304.2936958961965</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C25" t="n">
-        <v>255.1533878592638</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I25" t="n">
-        <v>102.0814946870265</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K25" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L25" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M25" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N25" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O25" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R25" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S25" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T25" t="n">
-        <v>535.5461600008207</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="U25" t="n">
-        <v>535.5461600008207</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="V25" t="n">
-        <v>535.5461600008207</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="W25" t="n">
-        <v>535.5461600008207</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="X25" t="n">
-        <v>304.2936958961965</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="Y25" t="n">
-        <v>304.2936958961965</v>
+        <v>1645.998693067917</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1616.530979037796</v>
+        <v>969.5991783323723</v>
       </c>
       <c r="C26" t="n">
-        <v>1234.597220370603</v>
+        <v>587.6654196651797</v>
       </c>
       <c r="D26" t="n">
-        <v>861.7732555978264</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="E26" t="n">
-        <v>466.9875357039332</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="F26" t="n">
-        <v>466.9875357039332</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="G26" t="n">
-        <v>466.9875357039332</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I26" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J26" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K26" t="n">
         <v>354.1631724187877</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U26" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V26" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W26" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X26" t="n">
-        <v>2010.574518555815</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="Y26" t="n">
-        <v>2010.574518555815</v>
+        <v>1363.642717850391</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6290,40 @@
         <v>161.3375945908657</v>
       </c>
       <c r="E27" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F27" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G27" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L27" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U28" t="n">
-        <v>1829.888864255606</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1191.567699435062</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="C29" t="n">
-        <v>809.6339407678688</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="D29" t="n">
-        <v>436.8099759950924</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="E29" t="n">
-        <v>42.02425610119923</v>
+        <v>1145.088864793021</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>730.9376741031908</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>314.8336875573788</v>
       </c>
       <c r="H29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I29" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K29" t="n">
         <v>354.1631724187877</v>
@@ -6497,16 +6499,16 @@
         <v>1876.853858790972</v>
       </c>
       <c r="V29" t="n">
-        <v>1876.853858790972</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="W29" t="n">
-        <v>1876.853858790972</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="X29" t="n">
-        <v>1876.853858790972</v>
+        <v>1539.874584686914</v>
       </c>
       <c r="Y29" t="n">
-        <v>1585.611238953081</v>
+        <v>1539.874584686914</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>49.73385863501696</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>279.2244111952056</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0462563653213</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M30" t="n">
-        <v>1130.079609875548</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N30" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6567,25 +6569,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271.6974642253462</v>
+        <v>390.5281326627519</v>
       </c>
       <c r="C31" t="n">
-        <v>102.0814946870265</v>
+        <v>220.9121631244322</v>
       </c>
       <c r="D31" t="n">
-        <v>102.0814946870265</v>
+        <v>67.84026995219489</v>
       </c>
       <c r="E31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I31" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J31" t="n">
         <v>42.02425610119923</v>
@@ -6640,31 +6642,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y31" t="n">
-        <v>455.2528329097261</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1616.530979037796</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="C32" t="n">
-        <v>1234.597220370603</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="D32" t="n">
-        <v>1234.597220370603</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="E32" t="n">
-        <v>839.8115004767096</v>
+        <v>788.9967211937196</v>
       </c>
       <c r="F32" t="n">
-        <v>839.8115004767096</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.574518555815</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V32" t="n">
-        <v>2010.574518555815</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W32" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X32" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="Y32" t="n">
-        <v>2010.574518555815</v>
+        <v>1146.813264527498</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M33" t="n">
-        <v>1182.624153874836</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P33" t="n">
         <v>1943.441175274367</v>
@@ -6801,25 +6803,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T33" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U33" t="n">
-        <v>1882.718012658271</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V33" t="n">
-        <v>1712.510642623821</v>
+        <v>1471.548322781966</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1230.232454015276</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>1230.232454015276</v>
       </c>
       <c r="Y33" t="n">
         <v>1080.756459384504</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.6402256395189</v>
+        <v>1592.96369354667</v>
       </c>
       <c r="C34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K34" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L34" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M34" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N34" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O34" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P34" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q34" t="n">
-        <v>574.0835013471317</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R34" t="n">
-        <v>424.5617199615099</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="S34" t="n">
-        <v>395.1955943238988</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="T34" t="n">
-        <v>395.1955943238988</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="U34" t="n">
-        <v>395.1955943238988</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="V34" t="n">
-        <v>395.1955943238988</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="W34" t="n">
-        <v>395.1955943238988</v>
+        <v>1776.51906223105</v>
       </c>
       <c r="X34" t="n">
-        <v>395.1955943238988</v>
+        <v>1776.51906223105</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.1955943238988</v>
+        <v>1776.51906223105</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E35" t="n">
         <v>42.02425610119923</v>
@@ -6962,25 +6964,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S35" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T35" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1434.739547135321</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V35" t="n">
-        <v>1097.760273031262</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W35" t="n">
-        <v>817.4998701925539</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X35" t="n">
-        <v>817.4998701925539</v>
+        <v>1979.153094377243</v>
       </c>
       <c r="Y35" t="n">
-        <v>423.9580147683919</v>
+        <v>1585.611238953081</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C36" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D36" t="n">
-        <v>161.3375945908657</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E36" t="n">
-        <v>42.02425610119923</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G36" t="n">
         <v>42.02425610119923</v>
@@ -7014,25 +7016,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>331.768955194494</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N36" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
@@ -7047,19 +7049,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5617199615099</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5617199615099</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="V37" t="n">
-        <v>163.8264155199325</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="W37" t="n">
-        <v>163.8264155199325</v>
+        <v>53.71430865191041</v>
       </c>
       <c r="X37" t="n">
-        <v>163.8264155199325</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
         <v>42.02425610119923</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.302003668149</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="C38" t="n">
-        <v>1047.368245000957</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="D38" t="n">
-        <v>674.5442802281802</v>
+        <v>271.7630916119397</v>
       </c>
       <c r="E38" t="n">
-        <v>279.7585603342871</v>
+        <v>271.7630916119397</v>
       </c>
       <c r="F38" t="n">
-        <v>279.7585603342871</v>
+        <v>271.7630916119397</v>
       </c>
       <c r="G38" t="n">
-        <v>279.7585603342871</v>
+        <v>271.7630916119397</v>
       </c>
       <c r="H38" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7175,16 +7177,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L38" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O38" t="n">
         <v>1778.623654917371</v>
@@ -7202,22 +7204,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U38" t="n">
-        <v>1823.345543186168</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V38" t="n">
-        <v>1823.345543186168</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W38" t="n">
-        <v>1823.345543186168</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X38" t="n">
-        <v>1823.345543186168</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="Y38" t="n">
-        <v>1823.345543186168</v>
+        <v>644.5870563847161</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>821.3991591499413</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>659.695486390896</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H39" t="n">
         <v>110.4065414111382</v>
@@ -7281,22 +7283,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>2059.463200123875</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.906265175487</v>
+        <v>1840.968407722185</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.510642623821</v>
+        <v>1612.572785170519</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1371.256916403829</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>980.8186019312022</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1721.634214788252</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V40" t="n">
-        <v>1873.643229026933</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y40" t="n">
-        <v>1873.643229026933</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1254.213192004034</v>
+        <v>990.1106791748693</v>
       </c>
       <c r="C41" t="n">
-        <v>872.2794333368408</v>
+        <v>608.1769205076766</v>
       </c>
       <c r="D41" t="n">
-        <v>872.2794333368408</v>
+        <v>235.3529557349002</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>235.3529557349002</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>235.3529557349002</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>235.3529557349002</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
@@ -7424,37 +7426,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690316</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>990.1106791748693</v>
       </c>
       <c r="X41" t="n">
-        <v>2041.798586946215</v>
+        <v>990.1106791748693</v>
       </c>
       <c r="Y41" t="n">
-        <v>1648.256731522053</v>
+        <v>990.1106791748693</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C42" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D42" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E42" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F42" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G42" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K42" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="L42" t="n">
-        <v>637.3366538315036</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.37000734173</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R42" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>852.9547312933042</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y42" t="n">
-        <v>852.9547312933042</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K43" t="n">
         <v>75.62844384584264</v>
@@ -7594,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>127.1947855664981</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V43" t="n">
-        <v>127.1947855664981</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1245.103398109617</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="C44" t="n">
-        <v>1245.103398109617</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="D44" t="n">
-        <v>872.2794333368408</v>
+        <v>271.7630916119401</v>
       </c>
       <c r="E44" t="n">
-        <v>872.2794333368408</v>
+        <v>271.7630916119401</v>
       </c>
       <c r="F44" t="n">
-        <v>458.1282426470112</v>
+        <v>271.7630916119401</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119923</v>
+        <v>271.7630916119401</v>
       </c>
       <c r="H44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740045</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P44" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R44" t="n">
         <v>2010.574518555815</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T44" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U44" t="n">
-        <v>1755.689182269809</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V44" t="n">
-        <v>1418.70990816575</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W44" t="n">
-        <v>1245.103398109617</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="X44" t="n">
-        <v>1245.103398109617</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1245.103398109617</v>
+        <v>644.5870563847166</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C45" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D45" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E45" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F45" t="n">
-        <v>339.0728988411556</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3443988644402</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K45" t="n">
-        <v>271.5148086613879</v>
+        <v>44.79609019664946</v>
       </c>
       <c r="L45" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667651</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.916935000113</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O45" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S45" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T45" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.756459384504</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F46" t="n">
-        <v>1948.732150085738</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G46" t="n">
-        <v>1779.812401453588</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H46" t="n">
-        <v>1620.439756232862</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>129.121274646195</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7997,7 +7999,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,19 +8057,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8076,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>193.3806259623375</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8292,19 +8294,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8456,7 +8458,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L8" t="n">
-        <v>542.9595789155851</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M8" t="n">
         <v>584.3675935406823</v>
@@ -8468,7 +8470,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P8" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q8" t="n">
         <v>276.0094878578761</v>
@@ -8535,7 +8537,7 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8550,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8702,7 +8704,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8778,16 +8780,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>479.0556164367791</v>
       </c>
       <c r="O12" t="n">
-        <v>222.1494342538443</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,7 +8929,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -9003,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>429.0171519255188</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9018,10 +9020,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9173,7 +9175,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>568.5510017355789</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,7 +9242,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9251,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9723,7 +9725,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9732,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>129.0110038467633</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M27" t="n">
-        <v>315.5450020690959</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>110.8430489735533</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10203,13 +10205,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10349,7 +10351,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
         <v>542.9595789155856</v>
@@ -10425,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,13 +10439,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q33" t="n">
         <v>273.1004740566038</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -11139,7 +11141,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11150,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>116.5350238645392</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11376,7 +11378,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863134</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -22547,22 +22549,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>189.4991937690394</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22598,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>174.1560503392559</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>98.13922823396038</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>161.3163735339366</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22787,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22829,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -22841,13 +22843,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>189.9561998818203</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>141.6214520579308</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22863,19 +22865,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>72.91608175895243</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>95.1359871957672</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22939,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>117.2031602408626</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -22957,10 +22959,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>126.9312680611862</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -22990,13 +22992,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>250.8970325532982</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -23075,10 +23077,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>96.01112558522399</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -23087,7 +23089,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23109,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23154,10 +23156,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>179.3662704274322</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>163.6904326980361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23185,22 +23187,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>99.71558964164922</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>44.83061109871238</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.87163827606969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>366.2744452249123</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -23321,10 +23323,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.2450896161174</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -23422,7 +23424,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -23437,7 +23439,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>15.54645947481152</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23482,7 +23484,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6035419151749</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>101.2762432304074</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.3364829231459</v>
@@ -23561,7 +23563,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>215.9598310420856</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23732,25 +23734,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>157.3507551659152</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.0952142732099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
@@ -23798,7 +23800,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23817,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>90.84067356036894</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>66.17009992564846</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
         <v>150.9558484244806</v>
@@ -23938,13 +23940,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
@@ -23978,16 +23980,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>159.351835591142</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>189.9561998818203</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.76792460626649</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24169,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>28.79146245000845</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
@@ -24212,19 +24214,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>154.610920912965</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>59.35902579940038</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>72.9160817589524</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>27.43752473892766</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>105.6431330761867</v>
       </c>
       <c r="C25" t="n">
-        <v>119.2709048863731</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24385,7 +24387,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -24415,7 +24417,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -24427,10 +24429,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
@@ -24458,7 +24460,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>79.86844165524909</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -24509,7 +24511,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>133.8638902618909</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>126.3760036176966</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -24537,10 +24539,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U28" t="n">
-        <v>15.70763571947987</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>59.41172451704608</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24737,7 +24739,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24746,7 +24748,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.2762432304074</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>124.9310703838086</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24859,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>68.53616975158189</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
         <v>211.5726649703493</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>14.85734722460836</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>122.7156632105544</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24971,13 +24973,13 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>57.60636999204328</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>42.61487840245269</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>144.347777447622</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>182.5002005891143</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
@@ -25135,7 +25137,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
@@ -25202,22 +25204,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>81.45178203065404</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25239,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
@@ -25287,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>62.11393345935065</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>217.3667874383739</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.23066939509975</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25406,10 +25408,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>265.2251272711987</v>
+        <v>102.0516145030308</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
@@ -25485,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25521,10 +25523,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>145.4661439089489</v>
       </c>
       <c r="U39" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>167.2305511458285</v>
@@ -25603,13 +25605,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V40" t="n">
-        <v>32.83407112446375</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>138.0976490212998</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25676,25 +25678,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>319.3897631411123</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25716,13 +25718,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>38.7427172239039</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.40099082689014</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -25834,19 +25836,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
@@ -25874,13 +25876,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>102.0516145030303</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>187.0391358854036</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.1895774016925</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>91.98767949870336</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
         <v>59.456666199969</v>
@@ -26071,7 +26073,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
@@ -26086,10 +26088,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>133.5887588600999</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>631180.3473282949</v>
+        <v>631180.347328295</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>631180.3473282952</v>
+        <v>631180.3473282949</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631180.3473282949</v>
+        <v>631180.3473282952</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631180.3473282949</v>
+        <v>631180.347328295</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>631180.3473282952</v>
+        <v>631180.3473282949</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631180.3473282949</v>
+        <v>631180.347328295</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631180.3473282949</v>
+        <v>631180.3473282952</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631180.347328295</v>
+        <v>631180.3473282952</v>
       </c>
     </row>
     <row r="16">
@@ -26317,7 +26319,7 @@
         <v>154994.1683618825</v>
       </c>
       <c r="D2" t="n">
-        <v>154994.1683618824</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="E2" t="n">
         <v>154994.1683618825</v>
@@ -26326,25 +26328,25 @@
         <v>154994.1683618825</v>
       </c>
       <c r="G2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="H2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="I2" t="n">
         <v>154994.1683618826</v>
       </c>
       <c r="J2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="K2" t="n">
         <v>154994.1683618825</v>
       </c>
-      <c r="K2" t="n">
-        <v>154994.1683618826</v>
-      </c>
       <c r="L2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="M2" t="n">
-        <v>154994.1683618826</v>
+        <v>154994.1683618825</v>
       </c>
       <c r="N2" t="n">
         <v>154994.1683618826</v>
@@ -26353,7 +26355,7 @@
         <v>154994.1683618826</v>
       </c>
       <c r="P2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
     </row>
     <row r="3">
@@ -26430,7 +26432,7 @@
         <v>11603.65937297562</v>
       </c>
       <c r="G4" t="n">
-        <v>11603.65937297562</v>
+        <v>11603.65937297561</v>
       </c>
       <c r="H4" t="n">
         <v>11603.65937297562</v>
@@ -26506,10 +26508,10 @@
         <v>31938.43463691141</v>
       </c>
       <c r="O5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="P5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98216.71036553188</v>
+        <v>-98216.71036553185</v>
       </c>
       <c r="C6" t="n">
         <v>77824.47435199548</v>
       </c>
       <c r="D6" t="n">
-        <v>77824.47435199542</v>
+        <v>77824.47435199551</v>
       </c>
       <c r="E6" t="n">
         <v>111452.0743519955</v>
@@ -26534,22 +26536,22 @@
         <v>111452.0743519955</v>
       </c>
       <c r="G6" t="n">
-        <v>111452.0743519956</v>
+        <v>111452.0743519955</v>
       </c>
       <c r="H6" t="n">
         <v>111452.0743519955</v>
       </c>
       <c r="I6" t="n">
-        <v>111452.0743519956</v>
+        <v>111452.0743519955</v>
       </c>
       <c r="J6" t="n">
-        <v>-25990.35643978164</v>
+        <v>-25990.35643978158</v>
       </c>
       <c r="K6" t="n">
         <v>111452.0743519955</v>
       </c>
       <c r="L6" t="n">
-        <v>111452.0743519956</v>
+        <v>111452.0743519955</v>
       </c>
       <c r="M6" t="n">
         <v>111452.0743519955</v>
@@ -26826,10 +26828,10 @@
         <v>525.3032012649903</v>
       </c>
       <c r="O4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="P4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34717,7 +34719,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34796,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>79.64543451744501</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35176,7 +35178,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L8" t="n">
-        <v>351.3993667524705</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M8" t="n">
         <v>397.2112790435232</v>
@@ -35188,7 +35190,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P8" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q8" t="n">
         <v>95.38611483488586</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35270,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
@@ -35498,16 +35500,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>372.3404753690708</v>
       </c>
       <c r="O12" t="n">
-        <v>106.2899856427332</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>316.4417183543709</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35738,10 +35740,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q15" t="n">
         <v>159.3652826117113</v>
@@ -35893,7 +35895,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>382.1528875633487</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35969,7 +35971,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N18" t="n">
         <v>516.4299455789112</v>
@@ -35978,7 +35980,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,10 +36217,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36443,7 +36445,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36452,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.27581240187084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M27" t="n">
-        <v>200.061099507456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
         <v>516.4299455789112</v>
@@ -36692,7 +36694,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.787477306886596</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36923,13 +36925,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L32" t="n">
         <v>351.3993667524709</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
@@ -37157,13 +37159,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q33" t="n">
         <v>159.3652826117113</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
         <v>516.4299455789112</v>
@@ -37400,10 +37402,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37868,7 +37870,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N42" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
         <v>396.1615664486372</v>
@@ -37877,7 +37879,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>2.799832419646698</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
         <v>242.5660323684674</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646691</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38105,7 +38107,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
